--- a/biology/Zoologie/Association_internationale_des_éducateurs_de_zoo/Association_internationale_des_éducateurs_de_zoo.xlsx
+++ b/biology/Zoologie/Association_internationale_des_éducateurs_de_zoo/Association_internationale_des_éducateurs_de_zoo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_internationale_des_%C3%A9ducateurs_de_zoo</t>
+          <t>Association_internationale_des_éducateurs_de_zoo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association internationale des éducateurs de zoo, ou International Zoo Educators Association (IZE) en anglais, est une organisation regroupant au niveau international les éducateurs travaillant dans les parcs zoologiques et les aquariums.
 L'IZE existe, pour une période de temps indéterminée, sous la forme d'une association aux termes des articles 60 à 78 du Code civil suisse. L'association est un organisme à but non lucratif avec des membres internationaux. Le siège de l'association est situé en Suisse, anciennement à Berne et transféré depuis mai 2010 à Gland (Vaud).
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_internationale_des_%C3%A9ducateurs_de_zoo</t>
+          <t>Association_internationale_des_éducateurs_de_zoo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail des associations   Portail de l’éducation   Portail de la zoologie                   </t>
